--- a/random_method/solutions/solution_60_heterogeneous_evolutionary.xlsx
+++ b/random_method/solutions/solution_60_heterogeneous_evolutionary.xlsx
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>592.3426586658014</v>
+        <v>590.9590496269864</v>
       </c>
     </row>
   </sheetData>
@@ -506,7 +506,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S039</t>
+          <t>S033</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S026</t>
+          <t>S039</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S034</t>
+          <t>S001</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S042</t>
+          <t>S034</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S033</t>
+          <t>S044</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S045</t>
+          <t>S007</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S032</t>
+          <t>S036</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S036</t>
+          <t>S030</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S001</t>
+          <t>S043</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S051</t>
+          <t>S046</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S030</t>
+          <t>S031</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S005</t>
+          <t>S026</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S031</t>
+          <t>S037</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S006</t>
+          <t>S045</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S053</t>
+          <t>S005</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S028</t>
+          <t>S040</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>S043</t>
+          <t>S003</t>
         </is>
       </c>
     </row>
@@ -758,7 +758,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S038</t>
+          <t>S028</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S048</t>
+          <t>S016</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S046</t>
+          <t>S032</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S035</t>
+          <t>S006</t>
         </is>
       </c>
     </row>
@@ -818,7 +818,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S040</t>
+          <t>S050</t>
         </is>
       </c>
     </row>
@@ -830,7 +830,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>S004</t>
+          <t>S048</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S008</t>
+          <t>S004</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S037</t>
+          <t>S035</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>S050</t>
+          <t>S047</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S044</t>
+          <t>S049</t>
         </is>
       </c>
     </row>
@@ -890,7 +890,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S003</t>
+          <t>S013</t>
         </is>
       </c>
     </row>
@@ -902,7 +902,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>S047</t>
+          <t>S054</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S010</t>
+          <t>S014</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>S007</t>
+          <t>S008</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>S014</t>
+          <t>S038</t>
         </is>
       </c>
     </row>
@@ -950,7 +950,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>S015</t>
+          <t>S042</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>S049</t>
+          <t>S010</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>S013</t>
+          <t>S021</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>S017</t>
+          <t>S055</t>
         </is>
       </c>
     </row>
@@ -998,7 +998,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>S052</t>
+          <t>S011</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>S009</t>
+          <t>S052</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>S055</t>
+          <t>S015</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>S012</t>
+          <t>S056</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>S011</t>
+          <t>S051</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>S016</t>
+          <t>S009</t>
         </is>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>S056</t>
+          <t>S053</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>S054</t>
+          <t>S017</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>S061</t>
+          <t>S062</t>
         </is>
       </c>
     </row>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>S021</t>
+          <t>S061</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>S018</t>
+          <t>S012</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>S062</t>
+          <t>S018</t>
         </is>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>S019</t>
+          <t>S063</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>S063</t>
+          <t>S019</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>592.3426586658014</v>
+        <v>590.9590496269864</v>
       </c>
     </row>
     <row r="3">
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>576.4659152340793</v>
+        <v>579.0398151151477</v>
       </c>
     </row>
     <row r="4">
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>592.1739377229969</v>
+        <v>590.6868580387069</v>
       </c>
     </row>
   </sheetData>
